--- a/メンバー・リスト作成用ワークシート（日本語・英語）.xlsx
+++ b/メンバー・リスト作成用ワークシート（日本語・英語）.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\2016年度\JGS\FORM・申請書\論文提出関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\大輔\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="記入用紙" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>IBM Japan, Ltd.</t>
   </si>
@@ -76,13 +76,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[チームNo]チーム名</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>AAAAAAAAAAAAAAAAAA　Ltd.</t>
   </si>
   <si>
@@ -188,11 +181,6 @@
   <si>
     <t>Leader/
 Sub-Leader</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リーダー/
-サブリーダー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -473,12 +461,144 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>[IA-001]サーバレスアーキテクチャのビジネス適用</t>
+    <rPh sb="25" eb="27">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>所属</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リーダー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サブリーダー</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発第一部</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リーダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石野　大輔</t>
+    <rPh sb="0" eb="2">
+      <t>イシノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイスケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Trust Systems &amp; Services Co., Ltd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>所属の英語名は不要です。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイゴメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Leader</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三井住友トラスト・システム＆サービス（株）</t>
+    <rPh sb="0" eb="2">
+      <t>ミツイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スミトモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Daisuke Ishino</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -503,6 +623,23 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -554,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,6 +736,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,296 +1081,170 @@
   <sheetPr>
     <tabColor indexed="34"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" ht="15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" ht="15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" ht="15">
+      <c r="A19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="13"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1">
+      <c r="C25" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1224,101 +1262,101 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1337,26 +1375,26 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1364,125 +1402,125 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1490,116 +1528,116 @@
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="27">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
@@ -1608,14 +1646,14 @@
       <c r="D28" s="9"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
